--- a/output_src/step1-1_result.xlsx
+++ b/output_src/step1-1_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>贷款额度</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>贷款利率</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>贷款期限</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +474,12 @@
       <c r="C2" t="n">
         <v>-421567.9351444728</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +495,12 @@
       <c r="C3" t="n">
         <v>114255.9792676429</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +516,12 @@
       <c r="C4" t="n">
         <v>124209.1832017315</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +537,12 @@
       <c r="C5" t="n">
         <v>391767.6503117589</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +558,12 @@
       <c r="C6" t="n">
         <v>2062.527286313795</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +579,12 @@
       <c r="C7" t="n">
         <v>20757.09495646824</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +600,12 @@
       <c r="C8" t="n">
         <v>107803.8363393402</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +621,12 @@
       <c r="C9" t="n">
         <v>54233.68152119812</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +642,12 @@
       <c r="C10" t="n">
         <v>70900.07810887735</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +663,12 @@
       <c r="C11" t="n">
         <v>84479.05237369185</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +684,12 @@
       <c r="C12" t="n">
         <v>2110.619295628651</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +705,12 @@
       <c r="C13" t="n">
         <v>32254.84604333944</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +726,12 @@
       <c r="C14" t="n">
         <v>33065.08023092977</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +747,12 @@
       <c r="C15" t="n">
         <v>24694.89375396272</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +768,12 @@
       <c r="C16" t="n">
         <v>51573.47227181807</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +789,12 @@
       <c r="C17" t="n">
         <v>54296.32763042887</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +810,12 @@
       <c r="C18" t="n">
         <v>10004.6562032305</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +831,12 @@
       <c r="C19" t="n">
         <v>16062.15705620312</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +852,12 @@
       <c r="C20" t="n">
         <v>1880.715485922333</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +873,12 @@
       <c r="C21" t="n">
         <v>2346.684381663297</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +894,12 @@
       <c r="C22" t="n">
         <v>-1973.442295217506</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +915,12 @@
       <c r="C23" t="n">
         <v>12967.44628775718</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +936,12 @@
       <c r="C24" t="n">
         <v>2548.548174968257</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +957,12 @@
       <c r="C25" t="n">
         <v>17622.31864307423</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +978,12 @@
       <c r="C26" t="n">
         <v>7648.253674538778</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +999,12 @@
       <c r="C27" t="n">
         <v>440.1852965486103</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +1020,12 @@
       <c r="C28" t="n">
         <v>-251.0817381518772</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +1041,12 @@
       <c r="C29" t="n">
         <v>12151.13488911052</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +1062,12 @@
       <c r="C30" t="n">
         <v>10590.91668143651</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +1083,12 @@
       <c r="C31" t="n">
         <v>12694.82437046212</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +1104,12 @@
       <c r="C32" t="n">
         <v>10412.18024912626</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -929,6 +1125,12 @@
       <c r="C33" t="n">
         <v>10449.87513897174</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -944,6 +1146,12 @@
       <c r="C34" t="n">
         <v>-344.1421129714128</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -959,6 +1167,12 @@
       <c r="C35" t="n">
         <v>8334.544980436975</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -974,6 +1188,12 @@
       <c r="C36" t="n">
         <v>638.7017887508073</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -989,6 +1209,12 @@
       <c r="C37" t="n">
         <v>4043.278234528656</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1004,6 +1230,12 @@
       <c r="C38" t="n">
         <v>774.3133859747883</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1019,6 +1251,12 @@
       <c r="C39" t="n">
         <v>9218.929193292155</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1034,6 +1272,12 @@
       <c r="C40" t="n">
         <v>7432.682313997962</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1049,6 +1293,12 @@
       <c r="C41" t="n">
         <v>7123.863530264916</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1064,6 +1314,12 @@
       <c r="C42" t="n">
         <v>7024.962760594591</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1079,6 +1335,12 @@
       <c r="C43" t="n">
         <v>6825.429400765285</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1094,6 +1356,12 @@
       <c r="C44" t="n">
         <v>3921.374015990747</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1109,6 +1377,12 @@
       <c r="C45" t="n">
         <v>1041.710169653968</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1124,6 +1398,12 @@
       <c r="C46" t="n">
         <v>503.2642416030475</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1139,6 +1419,12 @@
       <c r="C47" t="n">
         <v>2778.268993613976</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1154,6 +1440,12 @@
       <c r="C48" t="n">
         <v>2071.899912364649</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1169,6 +1461,12 @@
       <c r="C49" t="n">
         <v>9299.915389064217</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1184,6 +1482,12 @@
       <c r="C50" t="n">
         <v>3267.030618704264</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1199,6 +1503,12 @@
       <c r="C51" t="n">
         <v>4329.278050230814</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1214,6 +1524,12 @@
       <c r="C52" t="n">
         <v>2048.916791957508</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1229,6 +1545,12 @@
       <c r="C53" t="n">
         <v>1166.599862252097</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1244,6 +1566,12 @@
       <c r="C54" t="n">
         <v>1280.015988348616</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1259,6 +1587,12 @@
       <c r="C55" t="n">
         <v>6612.555759375401</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1274,6 +1608,12 @@
       <c r="C56" t="n">
         <v>3368.726129194045</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1289,6 +1629,12 @@
       <c r="C57" t="n">
         <v>104.0427202409854</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1304,6 +1650,12 @@
       <c r="C58" t="n">
         <v>1714.974593999771</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1319,6 +1671,12 @@
       <c r="C59" t="n">
         <v>5440.939711588798</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1334,6 +1692,12 @@
       <c r="C60" t="n">
         <v>2071.842877217767</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1349,6 +1713,12 @@
       <c r="C61" t="n">
         <v>1631.924038763538</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1364,6 +1734,12 @@
       <c r="C62" t="n">
         <v>3829.932518009275</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1379,6 +1755,12 @@
       <c r="C63" t="n">
         <v>2329.749398400787</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1394,6 +1776,12 @@
       <c r="C64" t="n">
         <v>3196.725847548084</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1409,6 +1797,12 @@
       <c r="C65" t="n">
         <v>2157.807662627784</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1424,6 +1818,12 @@
       <c r="C66" t="n">
         <v>817.4741968260984</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1439,6 +1839,12 @@
       <c r="C67" t="n">
         <v>16.57172231047715</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1454,6 +1860,12 @@
       <c r="C68" t="n">
         <v>1157.414426568221</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1469,6 +1881,12 @@
       <c r="C69" t="n">
         <v>1501.578397348349</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1484,6 +1902,12 @@
       <c r="C70" t="n">
         <v>946.5065656924115</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1499,6 +1923,12 @@
       <c r="C71" t="n">
         <v>1239.206209455317</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1514,6 +1944,12 @@
       <c r="C72" t="n">
         <v>220.6364642702361</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1529,6 +1965,12 @@
       <c r="C73" t="n">
         <v>700.8928179384783</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1544,6 +1986,12 @@
       <c r="C74" t="n">
         <v>1340.832724689461</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1559,6 +2007,12 @@
       <c r="C75" t="n">
         <v>925.3801718610403</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1574,6 +2028,12 @@
       <c r="C76" t="n">
         <v>1046.30030948492</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1589,6 +2049,12 @@
       <c r="C77" t="n">
         <v>795.385526350588</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1604,6 +2070,12 @@
       <c r="C78" t="n">
         <v>872.4531803409526</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1619,6 +2091,12 @@
       <c r="C79" t="n">
         <v>1602.459219122234</v>
       </c>
+      <c r="D79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1634,6 +2112,12 @@
       <c r="C80" t="n">
         <v>163.6908785366783</v>
       </c>
+      <c r="D80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1649,6 +2133,12 @@
       <c r="C81" t="n">
         <v>289.1539231058116</v>
       </c>
+      <c r="D81" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1664,6 +2154,12 @@
       <c r="C82" t="n">
         <v>357.1779355081782</v>
       </c>
+      <c r="D82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1679,6 +2175,12 @@
       <c r="C83" t="n">
         <v>340.5522902862024</v>
       </c>
+      <c r="D83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1694,6 +2196,12 @@
       <c r="C84" t="n">
         <v>-8062.249352041148</v>
       </c>
+      <c r="D84" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1709,6 +2217,12 @@
       <c r="C85" t="n">
         <v>968.9094858140388</v>
       </c>
+      <c r="D85" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1724,6 +2238,12 @@
       <c r="C86" t="n">
         <v>609.4387010878837</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1739,6 +2259,12 @@
       <c r="C87" t="n">
         <v>570.3622184926854</v>
       </c>
+      <c r="D87" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1754,6 +2280,12 @@
       <c r="C88" t="n">
         <v>575.9863979480746</v>
       </c>
+      <c r="D88" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1769,6 +2301,12 @@
       <c r="C89" t="n">
         <v>498.1153938346006</v>
       </c>
+      <c r="D89" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1784,6 +2322,12 @@
       <c r="C90" t="n">
         <v>-166.9168862593626</v>
       </c>
+      <c r="D90" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1799,6 +2343,12 @@
       <c r="C91" t="n">
         <v>884.3673388130713</v>
       </c>
+      <c r="D91" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1814,6 +2364,12 @@
       <c r="C92" t="n">
         <v>250.666460736195</v>
       </c>
+      <c r="D92" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1829,6 +2385,12 @@
       <c r="C93" t="n">
         <v>532.5202016184422</v>
       </c>
+      <c r="D93" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1844,6 +2406,12 @@
       <c r="C94" t="n">
         <v>284.2860773709226</v>
       </c>
+      <c r="D94" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1859,6 +2427,12 @@
       <c r="C95" t="n">
         <v>269.9410814973291</v>
       </c>
+      <c r="D95" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1874,6 +2448,12 @@
       <c r="C96" t="n">
         <v>570.9865557229404</v>
       </c>
+      <c r="D96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1889,6 +2469,12 @@
       <c r="C97" t="n">
         <v>-183.3039461666805</v>
       </c>
+      <c r="D97" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1904,6 +2490,12 @@
       <c r="C98" t="n">
         <v>223.7374984003224</v>
       </c>
+      <c r="D98" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1919,6 +2511,12 @@
       <c r="C99" t="n">
         <v>363.9323382574668</v>
       </c>
+      <c r="D99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1934,6 +2532,12 @@
       <c r="C100" t="n">
         <v>-1139.86808342195</v>
       </c>
+      <c r="D100" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1949,6 +2553,12 @@
       <c r="C101" t="n">
         <v>155.890499331951</v>
       </c>
+      <c r="D101" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1964,6 +2574,12 @@
       <c r="C102" t="n">
         <v>135.7060816175796</v>
       </c>
+      <c r="D102" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1979,6 +2595,12 @@
       <c r="C103" t="n">
         <v>-656.1716295665619</v>
       </c>
+      <c r="D103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1994,6 +2616,12 @@
       <c r="C104" t="n">
         <v>285.6374788768604</v>
       </c>
+      <c r="D104" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2009,6 +2637,12 @@
       <c r="C105" t="n">
         <v>65.59759777368892</v>
       </c>
+      <c r="D105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2024,6 +2658,12 @@
       <c r="C106" t="n">
         <v>215.8505050097998</v>
       </c>
+      <c r="D106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2039,6 +2679,12 @@
       <c r="C107" t="n">
         <v>135.2047230766139</v>
       </c>
+      <c r="D107" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2054,6 +2700,12 @@
       <c r="C108" t="n">
         <v>181.9582942653792</v>
       </c>
+      <c r="D108" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2069,6 +2721,12 @@
       <c r="C109" t="n">
         <v>21.45606033234947</v>
       </c>
+      <c r="D109" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2084,6 +2742,12 @@
       <c r="C110" t="n">
         <v>153.4366774785818</v>
       </c>
+      <c r="D110" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2099,6 +2763,12 @@
       <c r="C111" t="n">
         <v>62.01663925627732</v>
       </c>
+      <c r="D111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2114,6 +2784,12 @@
       <c r="C112" t="n">
         <v>188.7939549898283</v>
       </c>
+      <c r="D112" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2129,6 +2805,12 @@
       <c r="C113" t="n">
         <v>136.3840670818645</v>
       </c>
+      <c r="D113" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2144,6 +2826,12 @@
       <c r="C114" t="n">
         <v>-232.0991135063641</v>
       </c>
+      <c r="D114" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2159,6 +2847,12 @@
       <c r="C115" t="n">
         <v>-84.66342874216753</v>
       </c>
+      <c r="D115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2174,6 +2868,12 @@
       <c r="C116" t="n">
         <v>24.3299618015476</v>
       </c>
+      <c r="D116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2189,6 +2889,12 @@
       <c r="C117" t="n">
         <v>59.29390816128768</v>
       </c>
+      <c r="D117" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2204,6 +2910,12 @@
       <c r="C118" t="n">
         <v>165.2795105921327</v>
       </c>
+      <c r="D118" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2219,6 +2931,12 @@
       <c r="C119" t="n">
         <v>37.56786082742037</v>
       </c>
+      <c r="D119" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2234,6 +2952,12 @@
       <c r="C120" t="n">
         <v>-42.74606184058999</v>
       </c>
+      <c r="D120" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2249,6 +2973,12 @@
       <c r="C121" t="n">
         <v>37.80682556942855</v>
       </c>
+      <c r="D121" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2264,6 +2994,12 @@
       <c r="C122" t="n">
         <v>-225.5241356661325</v>
       </c>
+      <c r="D122" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2279,6 +3015,12 @@
       <c r="C123" t="n">
         <v>7.680438262017299</v>
       </c>
+      <c r="D123" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2293,6 +3035,12 @@
       </c>
       <c r="C124" t="n">
         <v>54.91612893008057</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
